--- a/output.xlsx
+++ b/output.xlsx
@@ -458,7 +458,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="n"/>
@@ -560,38 +560,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>total_files</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>net_revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>14/03/2024</t>
         </is>
       </c>
-    </row>
-    <row r="2"/>
+      <c r="B2" t="n">
+        <v>208</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8660.309999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/output.xlsx
+++ b/output.xlsx
@@ -452,95 +452,433 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="n"/>
       <c r="B1" t="inlineStr">
         <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
           <t>14/03/2024</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>14/12/2023</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>11/08/23</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>16/08/23</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>23/08/23</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>30/08/23</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>10/09/23</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>12/09/23</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>14/09/23</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>16/09/23</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>16/10/23</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>18/10/23</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>20/10/23</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>23/10/23</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>25/10/23</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>27/10/23</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>01/11/23</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>08/11/23</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>10/11/23</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>14/11/23</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>20/11/23</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>22/11/23</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>28/11/23</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>01/12/23</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>04/12/23</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>13/12/23</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="F25" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="G25" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>27/12/23</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="F26" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="G26" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>29/12/23</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,12 +911,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>total_files</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>net_revenue</t>
         </is>
@@ -587,14 +925,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9079.639999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>7898.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1016.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6138.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
           <t>14/03/2024</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B6" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6" s="0" t="n">
         <v>8660.309999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5103.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7818.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>14/12/2023</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6600.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5905.61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3569.05</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,108 +1074,445 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
           <t>14/03/2024</t>
         </is>
       </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>02/01/24</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="F2" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>04/01/24</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="F3" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>06/01/24</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>07/01/24</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>10/01/24</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>14/01/24</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="F7" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>17/01/24</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="F8" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>22/01/24</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>26/01/24</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>31/01/24</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>07/02/24</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>11/02/24</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>13/02/24</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>19/02/24</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>25/02/24</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>27/02/24</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>01/03/24</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>04/03/24</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>07/03/24</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>19/03/24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>21/03/24</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>29/03/24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>01/04/24</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>08/04/24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>10/04/24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>16/04/24</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/04/24</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>24/04/24</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>26/04/24</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>03/05/24</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07/05/24</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/05/24</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>23/05/24</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>27/05/24</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
